--- a/sort/sort_speed.xlsx
+++ b/sort/sort_speed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouheiadachi/Desktop/program_design/sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC09CAA-DB7F-DA4B-BAF6-8C8333720AB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC7E2695-63D0-6945-88D4-86BD362D8EA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{B868E711-4C50-F246-9A9E-E7C7D238FED7}"/>
   </bookViews>
@@ -750,6 +750,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ソート速度の違い</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2878,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15944F-F8B1-3C4E-B558-48AB261598A9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="181" zoomScaleNormal="377" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="377" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/sort/sort_speed.xlsx
+++ b/sort/sort_speed.xlsx
@@ -5,16 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouheiadachi/Desktop/program_design/sort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koheiadachi/Desktop/kyutech/Program_design/sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC7E2695-63D0-6945-88D4-86BD362D8EA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F09B4-60FA-7D43-99B3-72A3CEC4686C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{B868E711-4C50-F246-9A9E-E7C7D238FED7}"/>
+    <workbookView xWindow="880" yWindow="560" windowWidth="27920" windowHeight="17440" xr2:uid="{B868E711-4C50-F246-9A9E-E7C7D238FED7}"/>
   </bookViews>
   <sheets>
     <sheet name="sort_speed" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">sort_speed!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">sort_speed!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">sort_speed!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">sort_speed!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">sort_speed!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">sort_speed!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">sort_speed!$D$2:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>個数</t>
     <rPh sb="0" eb="2">
@@ -34,15 +43,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>b</t>
+    <t>オーダーがn^2だったら２倍になる．</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i</t>
+    <t>BubbleSort</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
+    <t>InsertSort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionSort</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -819,7 +832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>b</c:v>
+                  <c:v>BubbleSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -942,7 +955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>i</c:v>
+                  <c:v>InsertSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1065,7 +1078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s</c:v>
+                  <c:v>SelectionSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2532,15 +2545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>474134</xdr:colOff>
+      <xdr:colOff>938173</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>770466</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282005</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2901,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15944F-F8B1-3C4E-B558-48AB261598A9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="377" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="226" zoomScaleNormal="377" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2914,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3063,9 +3076,15 @@
         <v>8.7318239999999996</v>
       </c>
     </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>